--- a/COM/LISTA DE WEBSITES EMPREGO.xlsx
+++ b/COM/LISTA DE WEBSITES EMPREGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatc\OneDrive\Desktop\___cv_NEWHOPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatc\OneDrive\Desktop\CESAE_SOFTDEV_2023-24\COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A7EE6-AEE3-47E6-8E36-141765A11879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE249D3C-D1CA-4704-881B-AAD60F304D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05EBC074-EDBE-4439-8206-33FF21B89594}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>https://www.sonae.pt/pt/pessoas/oportunidades-de-carreira/</t>
   </si>
@@ -245,6 +245,81 @@
   </si>
   <si>
     <t>https://www.inetum.com/pt-pt/portugal</t>
+  </si>
+  <si>
+    <t>BPI PARIBAS</t>
+  </si>
+  <si>
+    <t>MILLENIUM</t>
+  </si>
+  <si>
+    <t>DEVEXPERTS</t>
+  </si>
+  <si>
+    <t>HOSPITAL SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>HOSPITAL LUSÍADAS</t>
+  </si>
+  <si>
+    <t>HOSPITAL ARRÁBIDA</t>
+  </si>
+  <si>
+    <t>HOSPITAL CUF</t>
+  </si>
+  <si>
+    <t>SEGURANÇA SOCIAL</t>
+  </si>
+  <si>
+    <t>CRITICAL SOFTWARE</t>
+  </si>
+  <si>
+    <t>ANO SOFTWARE</t>
+  </si>
+  <si>
+    <t>Porto | euronext.com</t>
+  </si>
+  <si>
+    <t>EURONEXT</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>GERAIS</t>
+  </si>
+  <si>
+    <t>não usar emails:</t>
+  </si>
+  <si>
+    <t>identificar o recruiter</t>
+  </si>
+  <si>
+    <t>mas tb it devs</t>
+  </si>
+  <si>
+    <t>linkedin: pedir email da pessoa</t>
+  </si>
+  <si>
+    <t>nuno</t>
+  </si>
+  <si>
+    <t>daniel mota</t>
+  </si>
+  <si>
+    <t>andre guerreiro</t>
+  </si>
+  <si>
+    <t>prime it</t>
+  </si>
+  <si>
+    <t>NOVABASE</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>BPI</t>
   </si>
 </sst>
 </file>
@@ -364,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -383,6 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -409,6 +485,214 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5583D4-5D0B-54AE-6AE9-313AE015439A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8252460" y="3779520"/>
+          <a:ext cx="2926080" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Olá, !</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Sou a Patrícia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> e estou a tirar um curso intensivo de software devlopment (fullstack) no CESAE Digital. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>A partir de Março vou fazer um estágio de 3 meses, e... adorava fazê-lo na empresa!</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Podemos marcar uma entrevista, ou uma conversa? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Muito grata pela sua atenção desde já,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Patrícia Matos</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AEAFF9-AFB5-A4D5-435E-3EE420EA6726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8252460" y="5494020"/>
+          <a:ext cx="3985260" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -823,21 +1107,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249617CC-450D-4E6D-98C1-3D850E07E07A}">
-  <dimension ref="B1:D15"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>50</v>
       </c>
@@ -848,7 +1132,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
@@ -856,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
@@ -864,7 +1148,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
@@ -872,128 +1159,258 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="https://chbusinessconsulting.com/pt/main-pt/" xr:uid="{3990AB1C-35D3-4192-8F90-EF7B1CAAEE76}"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://www.fabamaq.com/" xr:uid="{4A17B607-9E6A-475E-8AFC-3AAD12EC19C8}"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://www.blip.pt/" xr:uid="{5C799C1E-1594-49E0-B988-5AD5587EF9CF}"/>
-    <hyperlink ref="D11" r:id="rId4" display="https://www.shakeit.pt/" xr:uid="{8FE3A933-C448-46B0-95DE-6C037CE6F0F3}"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://www.itsector.pt/" xr:uid="{262FCA22-D031-4945-B51A-AD060A8F329C}"/>
-    <hyperlink ref="D13" r:id="rId6" display="https://www.smartex.ai/" xr:uid="{29422927-C2C5-44AA-8590-0762557ECEF2}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{F6BAB62C-E1DB-4287-9322-BFFCEADD810B}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{F866C4C2-F18F-4087-9B90-71C36FCE9BD1}"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://www.fabamaq.com/" xr:uid="{4A17B607-9E6A-475E-8AFC-3AAD12EC19C8}"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://www.blip.pt/" xr:uid="{5C799C1E-1594-49E0-B988-5AD5587EF9CF}"/>
+    <hyperlink ref="D12" r:id="rId4" display="https://www.shakeit.pt/" xr:uid="{8FE3A933-C448-46B0-95DE-6C037CE6F0F3}"/>
+    <hyperlink ref="D13" r:id="rId5" display="https://www.itsector.pt/" xr:uid="{262FCA22-D031-4945-B51A-AD060A8F329C}"/>
+    <hyperlink ref="D14" r:id="rId6" display="https://www.smartex.ai/" xr:uid="{29422927-C2C5-44AA-8590-0762557ECEF2}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{F6BAB62C-E1DB-4287-9322-BFFCEADD810B}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{F866C4C2-F18F-4087-9B90-71C36FCE9BD1}"/>
+    <hyperlink ref="D29" r:id="rId9" display="https://www.euronext.com/pt/post-trade/euronext-securities/porto" xr:uid="{6411E86B-7028-4F97-AF4A-7168A0625948}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1230,6 +1647,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A128A6768934A4DA3AA0EF5AD82C041" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="061100c229c6f771cc0160d6bd9dd4e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bfbb31b5de685c4e8efa6530dbd60db">
     <xsd:element name="properties">
@@ -1343,33 +1775,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3480F1-9E11-4DA1-8941-86B07CA49588}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7EA2B9-057F-4DD1-A4EF-6267CF6260C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1384,9 +1793,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7EA2B9-057F-4DD1-A4EF-6267CF6260C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3480F1-9E11-4DA1-8941-86B07CA49588}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/COM/LISTA DE WEBSITES EMPREGO.xlsx
+++ b/COM/LISTA DE WEBSITES EMPREGO.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatc\OneDrive\Desktop\CESAE_SOFTDEV_2023-24\COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE249D3C-D1CA-4704-881B-AAD60F304D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCA8F94-1E27-45D0-9EE5-B5D81E9A3B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05EBC074-EDBE-4439-8206-33FF21B89594}"/>
+    <workbookView minimized="1" xWindow="10512" yWindow="360" windowWidth="12528" windowHeight="8880" tabRatio="265" xr2:uid="{05EBC074-EDBE-4439-8206-33FF21B89594}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPRESAS" sheetId="2" r:id="rId1"/>
-    <sheet name="IEFP VA" sheetId="1" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId2"/>
+    <sheet name="IEFP VA" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>https://www.sonae.pt/pt/pessoas/oportunidades-de-carreira/</t>
   </si>
@@ -49,9 +50,6 @@
   </si>
   <si>
     <t>https://emprego.sapo.pt/</t>
-  </si>
-  <si>
-    <t>www.itjobs.pt</t>
   </si>
   <si>
     <t>https://www.bep.gov.pt/Default.aspx</t>
@@ -268,9 +266,6 @@
     <t>HOSPITAL CUF</t>
   </si>
   <si>
-    <t>SEGURANÇA SOCIAL</t>
-  </si>
-  <si>
     <t>CRITICAL SOFTWARE</t>
   </si>
   <si>
@@ -301,15 +296,6 @@
     <t>linkedin: pedir email da pessoa</t>
   </si>
   <si>
-    <t>nuno</t>
-  </si>
-  <si>
-    <t>daniel mota</t>
-  </si>
-  <si>
-    <t>andre guerreiro</t>
-  </si>
-  <si>
     <t>prime it</t>
   </si>
   <si>
@@ -320,13 +306,112 @@
   </si>
   <si>
     <t>BPI</t>
+  </si>
+  <si>
+    <t>QAValue</t>
+  </si>
+  <si>
+    <t>Jumia Porto Tech Center</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Networking/acquaintances</t>
+  </si>
+  <si>
+    <t>Proactive application</t>
+  </si>
+  <si>
+    <t>VESTAS</t>
+  </si>
+  <si>
+    <t>Python Software Developer Trainee</t>
+  </si>
+  <si>
+    <t>Cloud or Data Engineer Intern</t>
+  </si>
+  <si>
+    <t>MIR Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOLIC ENERGY </t>
+  </si>
+  <si>
+    <t>Internship Programme: Android Softw Eng</t>
+  </si>
+  <si>
+    <t>General application</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>LinkedIn + Instagram stories</t>
+  </si>
+  <si>
+    <t>LinkedIn direct message to HR person</t>
+  </si>
+  <si>
+    <t>Proactive application (website)</t>
+  </si>
+  <si>
+    <t>Candidatura espontânea</t>
+  </si>
+  <si>
+    <t>Application: Android pioneer wannabe</t>
+  </si>
+  <si>
+    <t>RED LIGHT SOFTWARE (Coimbra)</t>
+  </si>
+  <si>
+    <t>Filipe Mendes</t>
+  </si>
+  <si>
+    <t>kantar</t>
+  </si>
+  <si>
+    <t>accenture portugal</t>
+  </si>
+  <si>
+    <t>QuickOps Consulting</t>
+  </si>
+  <si>
+    <t>Next level academy curricular internship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntt </t>
+  </si>
+  <si>
+    <t>https://www.itjobs.pt/</t>
+  </si>
+  <si>
+    <t>www.glassdoor.com</t>
+  </si>
+  <si>
+    <t>Não respondem</t>
+  </si>
+  <si>
+    <t>phc</t>
+  </si>
+  <si>
+    <t>michael page</t>
+  </si>
+  <si>
+    <t>INFINEON</t>
+  </si>
+  <si>
+    <t>infraspeak</t>
+  </si>
+  <si>
+    <t>bosch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +451,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +524,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -439,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -448,7 +568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,7 +577,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -468,8 +602,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFAFEAFF"/>
     </mruColors>
   </colors>
@@ -488,16 +624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4579620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -512,14 +648,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8252460" y="3779520"/>
-          <a:ext cx="2926080" cy="1653540"/>
+          <a:off x="8420100" y="4320540"/>
+          <a:ext cx="2926080" cy="3169920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -549,36 +688,109 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT" sz="1100"/>
-            <a:t>Olá, !</a:t>
-          </a:r>
+            <a:t>Estimada Sara,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="pt-PT" sz="1100"/>
-            <a:t>Sou a Patrícia</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
-            <a:t> e estou a tirar um curso intensivo de software devlopment (fullstack) no CESAE Digital. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
-            <a:t>A partir de Março vou fazer um estágio de 3 meses, e... adorava fazê-lo na empresa!</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
-            <a:t>Podemos marcar uma entrevista, ou uma conversa? </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
-            <a:t>Muito grata pela sua atenção desde já,</a:t>
+            <a:t>boa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> tarde!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Antes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> de mais, agradeço ter aceite a conexão. S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>ou a Patrícia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> e estou a terminar um curso intensivo de software devlopment (fullstack) no CESAE Digital. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>A partir de Março vou fazer um estágio de 3 meses, e gostaria imenso de o fazer na FABAMAQ, empresa da qual já ouvi imensas coisas muito positivas. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mais adianto que solicitei a um dos colaboradores (o artista 3D André Jorge) que me indicasse quem deveria contactar neste contexto.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Será que podemos marcar uma entrevista, ou uma conversa? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Grata pela atenção desde já.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Cumprimentos,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -624,16 +836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4587240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -648,14 +860,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8252460" y="5494020"/>
-          <a:ext cx="3985260" cy="1973580"/>
+          <a:off x="8427720" y="7642860"/>
+          <a:ext cx="3985260" cy="4625340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -683,6 +898,1564 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hello there! On the verge of concluding a Software Development (Fullstack) intensive training program, I'm currently seeking opportunities of a 3-month internship in the IT field!</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Any information, piece of advice - or, perhaps, actual opportunities! - you may share would be very much appreciated.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Areas:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Junior Java developer,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Junior Python developer,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Junior Android development,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Junior Frontend development,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Junior Web development,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Other related areas</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Preferences:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; In Porto (and Porto metropolitan area)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; On-site and hybrid locations, as I do value the more energizing learning experience that being in direct contact with people provides</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Thanks in advance,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Patrícia</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1432560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4358640</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC122D7-9CA8-4D0E-9A32-AD0D077534F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273040" y="3810000"/>
+          <a:ext cx="2926080" cy="3893820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Estimado </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" u="sng"/>
+            <a:t>Filipe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" u="none"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" u="none"/>
+          </a:br>
+          <a:endParaRPr lang="pt-PT" sz="1100" u="none"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" u="none"/>
+            <a:t>boa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" u="none" baseline="0"/>
+            <a:t> tarde!</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Antes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> de mais, agradeço a sua conexão.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Reparei que é se encarga ... desde que falámos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> comecei</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>a tirar um curso intensivo de software devlopment fullstack (de 140 candidatos entrariam 20, nao sabia se ia conseguir) e tenho um estágio de 3 meses a partir de Março.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>A tua empresa sempre me pareceu muito fixe e claro que gostava de o tentar fazer aí. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Assim, venho contactar-te para saber se me conseguirias indicar quem trata das contrações, ou alguém adequado para abordar com esta questão pelo Linkedin. Acho que há mais chances do que enviar só emails sem saber para quem...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Obrigada pela tua atenção desde já,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Bom 2024 e um abraço,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Patrícia</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2636520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FE5262-3847-4D47-7785-E9E1DEC89CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8138160" y="91440"/>
+          <a:ext cx="3002280" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>telefonar ver contactos em anuncios emrego</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Delloite</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Natixis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Blip</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Alert</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>smartex.ai</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Kantar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>CapGemini</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>SwordHealth</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73DF0C0-7133-41B1-95C3-C5C3F57D21AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15681960" y="0"/>
+          <a:ext cx="10934700" cy="5821680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Patrícia Matos</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>www.linkedin.com/in/patricia---matos</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>apatcm@gmail.com</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+351 927601882</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NATIXIS</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Porto</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Assunto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: Estágio (formação profissional em contexto de trabalho)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Janeiro 2024</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Estimado/a Director/a dos Recursos Humanos da Vestas:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>chamo-me Patrícia e gostaria de realizar um estágio de três meses na Vestas, entre Março e Maio de 2024.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Conforme detalho no CV anexo, encontro-me a terminar a formação em Software Development (Fullstack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> no CESAE Digital, um curso intensivo cuja admissão requer uma seleção muito rigorosa dos candidatos.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O foco foi na programação em JAVA orientada a objectos, mas também adquiri experiência em bases de dados (MySQL), UML, Laravel e desenvolvimento web e frontend. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O carácter muito voltado para a aplicação prática, o sentido lógico e crítico, a noção realista das estruturas de trabalho empresarial, com recurso constante ao trabalho em equipa, será uma mais-valia no meu desempenho junto de vós.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Já ouvi coisas muito positivas acerca da Critical Software e da sua cultura de trabalho, e, naturalmente, tenho o maior interesse em colmatar a minha formação com experiência em empresas de topo, voltadas para o mercado global e para a inovação.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Refiro ainda que este estágio – ou melhor, esta FPCT (Formação Prática em Contexto de Trabalho) - compreenderá um total de 400 horas, numa frequência diária de 7 horas. É isenta de encargos financeiros da vossa parte. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Podemos marcar uma entrevista ou uma conversa, presencial ou online?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Grata desde já pela sua atenção!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Com os melhores cumprimentos,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1050" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Patrícia Matos</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" i="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>www.linkedin.com/in/patricia---matos</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>apatcm@gmail.com </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+351 927601882</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F5A755-AEBA-539B-4872-7618EC904026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13190220" y="6088380"/>
+          <a:ext cx="3482340" cy="2552700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Olá, sou a Patrícia, e estou a terminar um curso intensivo de Fullstack Software Development, no CESAE Digital. O foco do curso foi em JAVA, mas tambem Laravel, Angular, SQL, Android Develpment, Web development. O meu interesse profissional maior é Web development e web design.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Como hobbie faço pintura, illustraçao.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Adoro cinema, boa comida e exercicio fisico.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2918460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317B8966-A430-4261-B59A-F4D2D2BEA728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="4320540"/>
+          <a:ext cx="2926080" cy="3627120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Estimada Sara,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>boa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> tarde!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Antes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> de mais, agradeço ter aceite a conexão. S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>ou a Patrícia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t> e estou a terminar um curso intensivo de software devlopment (fullstack) no CESAE Digital. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>A partir de Março vou fazer um estágio de 3 meses, e gostaria imenso de o fazer na CAPGEMINI, empresa da qual já ouvi imensas coisas positivas. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Será que podemos marcar uma entrevista, ou uma conversa? </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Grata pela atenção desde já.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Cumprimentos,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+            <a:t>Patrícia Matos</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="pt-PT" sz="1100" baseline="0"/>
+          </a:br>
           <a:endParaRPr lang="pt-PT" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1107,319 +2880,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249617CC-450D-4E6D-98C1-3D850E07E07A}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="8"/>
+      <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B30" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B49" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="9" t="s">
-        <v>89</v>
-      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="https://chbusinessconsulting.com/pt/main-pt/" xr:uid="{3990AB1C-35D3-4192-8F90-EF7B1CAAEE76}"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://www.fabamaq.com/" xr:uid="{4A17B607-9E6A-475E-8AFC-3AAD12EC19C8}"/>
-    <hyperlink ref="D7" r:id="rId3" display="https://www.blip.pt/" xr:uid="{5C799C1E-1594-49E0-B988-5AD5587EF9CF}"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://www.shakeit.pt/" xr:uid="{8FE3A933-C448-46B0-95DE-6C037CE6F0F3}"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://www.itsector.pt/" xr:uid="{262FCA22-D031-4945-B51A-AD060A8F329C}"/>
-    <hyperlink ref="D14" r:id="rId6" display="https://www.smartex.ai/" xr:uid="{29422927-C2C5-44AA-8590-0762557ECEF2}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{F6BAB62C-E1DB-4287-9322-BFFCEADD810B}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{F866C4C2-F18F-4087-9B90-71C36FCE9BD1}"/>
-    <hyperlink ref="D29" r:id="rId9" display="https://www.euronext.com/pt/post-trade/euronext-securities/porto" xr:uid="{6411E86B-7028-4F97-AF4A-7168A0625948}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://chbusinessconsulting.com/pt/main-pt/" xr:uid="{3990AB1C-35D3-4192-8F90-EF7B1CAAEE76}"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://www.fabamaq.com/" xr:uid="{4A17B607-9E6A-475E-8AFC-3AAD12EC19C8}"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://www.blip.pt/" xr:uid="{5C799C1E-1594-49E0-B988-5AD5587EF9CF}"/>
+    <hyperlink ref="D21" r:id="rId4" display="https://www.shakeit.pt/" xr:uid="{8FE3A933-C448-46B0-95DE-6C037CE6F0F3}"/>
+    <hyperlink ref="D22" r:id="rId5" display="https://www.itsector.pt/" xr:uid="{262FCA22-D031-4945-B51A-AD060A8F329C}"/>
+    <hyperlink ref="D24" r:id="rId6" display="https://www.smartex.ai/" xr:uid="{29422927-C2C5-44AA-8590-0762557ECEF2}"/>
+    <hyperlink ref="D25" r:id="rId7" xr:uid="{F6BAB62C-E1DB-4287-9322-BFFCEADD810B}"/>
+    <hyperlink ref="D19" r:id="rId8" xr:uid="{F866C4C2-F18F-4087-9B90-71C36FCE9BD1}"/>
+    <hyperlink ref="D42" r:id="rId9" display="https://www.euronext.com/pt/post-trade/euronext-securities/porto" xr:uid="{6411E86B-7028-4F97-AF4A-7168A0625948}"/>
+    <hyperlink ref="A50" r:id="rId10" display="https://www.linkedin.com/jobs/view/3799034780/?alternateChannel=search&amp;refId=R1peRkR7oqOC%2BJ3k9cqSaQ%3D%3D&amp;trackingId=EZCV7EDjltIndEcpo7K75Q%3D%3D&amp;trk=d_flagship3_search_srp_jobs" xr:uid="{4977D67E-23C1-4386-8D45-E27443C05C71}"/>
+    <hyperlink ref="A51" r:id="rId11" display="https://www.linkedin.com/jobs/view/3811432383/?alternateChannel=search&amp;refId=SzcdDhxb8W8FI1D%2FSOrlSw%3D%3D&amp;trackingId=oaZb9kvXLVL2%2FvmHwim70w%3D%3D&amp;trk=d_flagship3_postapply_premium_top_choice" xr:uid="{9671B017-ED4E-48D4-9E1C-94B4DF086A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDF5DD9-D7F2-4071-B693-8AF12CC2C5D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19003103-2DCA-40D8-9FAB-8AB0A20F0018}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,12 +3429,12 @@
     <row r="1" spans="1:1" ht="84" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1464,156 +3463,158 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
+      <c r="A9" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +3640,13 @@
     <hyperlink ref="A37" r:id="rId19" xr:uid="{6FE5979B-20D8-42A7-BA21-20193DAF4097}"/>
     <hyperlink ref="A39" r:id="rId20" xr:uid="{A4EBAC02-A7F3-48E8-82A6-A98A1246A005}"/>
     <hyperlink ref="A40" r:id="rId21" xr:uid="{441C5558-8052-456F-86D3-FFC17BCAA972}"/>
+    <hyperlink ref="A15" r:id="rId22" xr:uid="{54C9BEFB-1051-4D6C-9E67-693D69D8FDD3}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{60C61789-61C9-4293-8024-97F7EE7C2E51}"/>
+    <hyperlink ref="A9" r:id="rId24" xr:uid="{2663801C-9F97-427D-9D83-D9515171700D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId22"/>
-  <drawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -1656,12 +3660,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000A128A6768934A4DA3AA0EF5AD82C041" ma:contentTypeVersion="0" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="061100c229c6f771cc0160d6bd9dd4e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bfbb31b5de685c4e8efa6530dbd60db">
     <xsd:element name="properties">
@@ -1775,6 +3773,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7EA2B9-057F-4DD1-A4EF-6267CF6260C1}">
   <ds:schemaRefs>
@@ -1784,15 +3788,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF73E16-F98C-4287-9F8A-7320AAECAC8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3480F1-9E11-4DA1-8941-86B07CA49588}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1806,4 +3801,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF73E16-F98C-4287-9F8A-7320AAECAC8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>